--- a/biology/Zoologie/Cordulagomphus/Cordulagomphus.xlsx
+++ b/biology/Zoologie/Cordulagomphus/Cordulagomphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cordulagomphus est un genre fossile de libellules de la famille des Proterogomphidae et qui vivaient au Crétacé inférieur[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cordulagomphus est un genre fossile de libellules de la famille des Proterogomphidae et qui vivaient au Crétacé inférieur,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cordulagomphus Carle (d) &amp; Wighton (d), 1990[3],[4]. Son espèce type est Cordulagomphus tuberculatus[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cordulagomphus Carle (d) &amp; Wighton (d), 1990,. Son espèce type est Cordulagomphus tuberculatus.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 août 2023)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 août 2023) :
 Cordulagomphus europaeus Vernoux et al., 2010
 Cordulagomphus fenestratus Carle &amp; Wighton, 1990
 Cordulagomphus hanneloreae Bechly, 2007
-Cordulagomphus tuberculatus Carle &amp; Wighton, 1990 - espèce type[4]
+Cordulagomphus tuberculatus Carle &amp; Wighton, 1990 - espèce type
 Cordulagomphus winkelhoferi Bechly, 2007</t>
         </is>
       </c>
